--- a/Employee_details.xlsx
+++ b/Employee_details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>S.No</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Neeraj Chaurasiya</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>D&amp;E</t>
   </si>
 </sst>
 </file>
@@ -329,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -350,7 +359,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +393,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,8 +428,14 @@
       <c r="K2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2">
+        <v>2323232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -446,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -478,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -510,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -574,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -606,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -641,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -673,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -705,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -737,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -769,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -801,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -833,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1379,7 +1400,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
